--- a/examples/SimpleFe/model_config.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
   <si>
     <t>type</t>
   </si>
@@ -94,9 +94,6 @@
     <t>substance</t>
   </si>
   <si>
-    <t>species_modelled</t>
-  </si>
-  <si>
     <t>RFeOOHPOC</t>
   </si>
   <si>
@@ -112,18 +109,9 @@
     <t>Omega</t>
   </si>
   <si>
-    <t>Fe</t>
-  </si>
-  <si>
     <t>Fe{2+} + Cl{-} = FeCl{+}</t>
   </si>
   <si>
-    <t>Fe{2+} + SO4{2-} = FeSO4</t>
-  </si>
-  <si>
-    <t>Fe{2+} + CO3{2-} = FeCO3</t>
-  </si>
-  <si>
     <t>Fe{2+} + HS{-} = FeHS{+}</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
     <t>FFeS0</t>
   </si>
   <si>
-    <t>Fe0</t>
-  </si>
-  <si>
     <t>cm^3(porewater) cm^-3(dry sediment)</t>
   </si>
   <si>
@@ -442,18 +427,12 @@
     <t>POC remineralization rate constant</t>
   </si>
   <si>
-    <t>Fe{2+}/Fe_free,Fe_ads</t>
-  </si>
-  <si>
     <t>KFe_ads</t>
   </si>
   <si>
     <t>Fe_ads</t>
   </si>
   <si>
-    <t>FFe_ads0</t>
-  </si>
-  <si>
     <t>CH2O</t>
   </si>
   <si>
@@ -466,18 +445,6 @@
     <t>adsorbed</t>
   </si>
   <si>
-    <t>FeCl</t>
-  </si>
-  <si>
-    <t>FeSO4</t>
-  </si>
-  <si>
-    <t>FeCO3</t>
-  </si>
-  <si>
-    <t>FeHS</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -529,9 +496,6 @@
     <t>mmol cm^-3 ds yr^-1 </t>
   </si>
   <si>
-    <t>Fe_free*HS/(H*KspFeS)</t>
-  </si>
-  <si>
     <t>10^(-3.2)</t>
   </si>
   <si>
@@ -568,7 +532,58 @@
     <t>free scale</t>
   </si>
   <si>
-    <t>KFe_ads*POC*Fe_free</t>
+    <t>FeCl_aq</t>
+  </si>
+  <si>
+    <t>TFe_dis</t>
+  </si>
+  <si>
+    <t>KFe_ads*POC*TFe_dis</t>
+  </si>
+  <si>
+    <t>Fe_aq</t>
+  </si>
+  <si>
+    <t>FeSO4_aq</t>
+  </si>
+  <si>
+    <t>FeCO3_aq</t>
+  </si>
+  <si>
+    <t>FeHS_aq</t>
+  </si>
+  <si>
+    <t>Fe_aq*HS/(H*KspFeS)</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>FTFe_ads_POC0</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>Fe{2+}</t>
+  </si>
+  <si>
+    <t>FeCl{+}</t>
+  </si>
+  <si>
+    <t>FeHS{+}</t>
+  </si>
+  <si>
+    <t>(FeCO3)[1]</t>
+  </si>
+  <si>
+    <t>(FeSO4)[1]</t>
+  </si>
+  <si>
+    <t>Fe{2+} + SO4{2-} = (FeSO4)[1]</t>
+  </si>
+  <si>
+    <t>Fe{2+} + CO3{2-} = (FeCO3)[1]</t>
   </si>
 </sst>
 </file>
@@ -995,25 +1010,25 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -1025,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1036,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1053,21 +1068,24 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1090,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.4">
@@ -1109,24 +1127,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -1135,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1155,25 +1173,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1183,221 +1201,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69140625" customWidth="1"/>
+    <col min="4" max="4" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-0.12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-0.12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3.65</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>5.4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="6"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C23" s="6"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C24" s="6"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C26" s="6"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C29" s="6"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C31" s="6"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D26" s="6"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="6"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D29" s="6"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1424,9 +1460,9 @@
     <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -1434,20 +1470,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
+      <c r="D1" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1458,16 +1494,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1478,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1495,51 +1531,51 @@
         <v>7</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>133</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D6" s="20"/>
       <c r="E6" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1547,17 +1583,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1565,17 +1601,18 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1583,14 +1620,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1642,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1613,7 +1650,7 @@
     <col min="1" max="1" width="9.23046875" style="4"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.61328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.15234375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.3046875" style="4" bestFit="1" customWidth="1"/>
@@ -1626,25 +1663,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -1659,22 +1696,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4">
         <v>500</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2"/>
       <c r="L2"/>
@@ -1690,22 +1727,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H3"/>
       <c r="L3"/>
@@ -1721,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H4"/>
       <c r="L4"/>
@@ -1752,22 +1789,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4">
         <v>2.6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H5"/>
       <c r="L5"/>
@@ -1783,22 +1820,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H6"/>
       <c r="L6"/>
@@ -1814,22 +1851,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4">
         <v>200</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H7"/>
       <c r="L7"/>
@@ -1845,22 +1882,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H8"/>
       <c r="L8"/>
@@ -1876,22 +1913,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="S9" s="4"/>
     </row>
@@ -1900,22 +1937,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10" s="13">
         <v>0.78839999999999999</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H10" s="13"/>
       <c r="S10" s="4"/>
@@ -1925,22 +1962,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="13">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13"/>
       <c r="S11" s="4"/>
@@ -1950,22 +1987,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="S12" s="4"/>
     </row>
@@ -1974,22 +2011,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H13" s="13"/>
       <c r="S13" s="4"/>
@@ -1999,22 +2036,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H14"/>
       <c r="L14"/>
@@ -2030,22 +2067,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="4">
         <v>0.31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H15"/>
       <c r="L15"/>
@@ -2061,22 +2098,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E16" s="4">
         <v>2.3E-2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H16"/>
       <c r="L16"/>
@@ -2092,22 +2129,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>2.2204460492503101E-16</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S17" s="4"/>
     </row>
@@ -2116,22 +2153,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2148,22 +2185,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2180,22 +2217,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>2.9499999999999999E-8</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2212,22 +2249,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>7.59</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H21"/>
       <c r="L21"/>
@@ -2243,22 +2280,22 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>2.3449999999999999E-3</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H22"/>
       <c r="L22"/>
@@ -2274,22 +2311,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>2.2204460492503101E-16</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H23"/>
       <c r="L23"/>
@@ -2305,22 +2342,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H24"/>
       <c r="L24"/>
@@ -2336,22 +2373,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25"/>
       <c r="L25"/>
@@ -2367,22 +2404,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H26"/>
       <c r="L26"/>
@@ -2398,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0.01</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H27"/>
       <c r="L27"/>
@@ -2429,22 +2466,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>1E-3</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -2459,22 +2496,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>4000</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -2491,22 +2528,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -2668,22 +2705,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2733,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="B1:E10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2715,34 +2752,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -2753,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -2767,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -2781,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -2792,14 +2829,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="19">
         <v>1000000</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -2807,14 +2844,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="19">
         <v>1000</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -2822,16 +2859,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -2845,7 +2882,7 @@
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -2859,7 +2896,7 @@
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -2867,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="19">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">

--- a/examples/SimpleFe/model_config.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9294" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
     <sheet name="adsorption" sheetId="20" r:id="rId2"/>
     <sheet name="speciation" sheetId="3" r:id="rId3"/>
     <sheet name="substances" sheetId="1" r:id="rId4"/>
-    <sheet name="parameters" sheetId="17" r:id="rId5"/>
-    <sheet name="data" sheetId="19" r:id="rId6"/>
-    <sheet name="output" sheetId="18" r:id="rId7"/>
+    <sheet name="diffusion" sheetId="21" r:id="rId5"/>
+    <sheet name="parameters" sheetId="17" r:id="rId6"/>
+    <sheet name="data" sheetId="19" r:id="rId7"/>
+    <sheet name="output" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$B$1:$B$3295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">data!$B$1:$B$3295</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -298,9 +299,6 @@
     <t>free pH scale</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
     <t>FPOC0</t>
   </si>
   <si>
@@ -310,12 +308,6 @@
     <t>FFeS0</t>
   </si>
   <si>
-    <t>cm^3(porewater) cm^-3(dry sediment)</t>
-  </si>
-  <si>
-    <t>Adsorption constant</t>
-  </si>
-  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -361,9 +353,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>dissolved_summed_pH</t>
-  </si>
-  <si>
     <t>conversion_profile</t>
   </si>
   <si>
@@ -391,18 +380,12 @@
     <t>TFe</t>
   </si>
   <si>
-    <t>dissolved_adsorbed_summed</t>
-  </si>
-  <si>
     <t>CH2O + 4*FeOOH + 8*H{+} = CO2 +  4*Fe{2+} + 7*H2O</t>
   </si>
   <si>
     <t>CH2O + 1/2*SO4{2-} + H{+} = CO2 + 1/2*H2S + H2O</t>
   </si>
   <si>
-    <t>SO40</t>
-  </si>
-  <si>
     <t>pH0</t>
   </si>
   <si>
@@ -511,9 +494,6 @@
     <t>porosity as a function of depth</t>
   </si>
   <si>
-    <t>porosity at burial depth</t>
-  </si>
-  <si>
     <t>bioburbation coefficient as a function of depth</t>
   </si>
   <si>
@@ -559,9 +539,6 @@
     <t>TFe_dis0</t>
   </si>
   <si>
-    <t>FTFe_ads_POC0</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
@@ -584,31 +561,64 @@
   </si>
   <si>
     <t>Fe{2+} + CO3{2-} = (FeCO3)[1]</t>
+  </si>
+  <si>
+    <t>dissolved_pH</t>
+  </si>
+  <si>
+    <t>dissolved_speciation</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>SedTrace_name</t>
+  </si>
+  <si>
+    <t>SO4{2-}</t>
+  </si>
+  <si>
+    <t>FTFe_ads0</t>
+  </si>
+  <si>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>speciation constant</t>
+  </si>
+  <si>
+    <t>SO4BW</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>thickness of the diffusive boundary layer</t>
+  </si>
+  <si>
+    <t>porosity at infinite depth</t>
+  </si>
+  <si>
+    <t>diffusion</t>
+  </si>
+  <si>
+    <t>DLorg_dis</t>
+  </si>
+  <si>
+    <t>Lorg_dis0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -677,6 +687,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -698,35 +714,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,26 +1024,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -1043,7 +1058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1054,13 +1069,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1071,13 +1086,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1111,11 +1126,11 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D22" s="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,21 +1143,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1153,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="G1" t="s">
         <v>63</v>
@@ -1168,24 +1183,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>129</v>
+        <v>157</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>165</v>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -1203,20 +1218,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F9" sqref="A7:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69140625" customWidth="1"/>
-    <col min="4" max="4" width="25.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.15625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1224,216 +1240,215 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="7">
+        <v>129</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>-0.12</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="7">
+        <v>171</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.96</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.65</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>5.4</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D31" s="6"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="5"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="5"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="5"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="5"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="5"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="5"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,25 +1458,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1470,20 +1485,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G1" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1493,17 +1508,17 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1513,14 +1528,14 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1530,108 +1545,114 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1639,953 +1660,1179 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="4"/>
-    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.61328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.15234375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" style="4" customWidth="1"/>
-    <col min="10" max="15" width="9.23046875" style="4"/>
-    <col min="16" max="16" width="15.23046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.23046875" style="4"/>
+    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S40"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="6.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.62890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.89453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.3125" style="3" customWidth="1"/>
+    <col min="10" max="13" width="9.20703125" style="3"/>
+    <col min="14" max="14" width="48.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.20703125" style="3"/>
+    <col min="16" max="16" width="15.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.20703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
-      <c r="O1"/>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>500</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2"/>
+      <c r="O2">
+        <v>1</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2.6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
+      <c r="O6">
+        <v>1</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>200</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>154</v>
+      <c r="G8" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
+      <c r="O8">
+        <v>1</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>160</v>
+      <c r="D9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
-      </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.78839999999999999</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>136</v>
+      <c r="F10" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>75</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="H11" s="12"/>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>137</v>
+      <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="G13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>90</v>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14"/>
+      <c r="O14">
+        <v>1</v>
+      </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>80</v>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>183</v>
       </c>
       <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16"/>
+      <c r="O16">
+        <v>1</v>
+      </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="G17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E19">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>82</v>
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="O19"/>
+      <c r="O19">
+        <v>1</v>
+      </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E20">
-        <v>2.9499999999999999E-8</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20"/>
+      <c r="O20">
+        <v>1</v>
+      </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="E21">
-        <v>7.59</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>84</v>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21"/>
+      <c r="O21">
+        <v>1</v>
+      </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E22">
-        <v>2.3449999999999999E-3</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>2.9499999999999999E-8</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22"/>
+      <c r="O22">
+        <v>1</v>
+      </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E23">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>82</v>
+        <v>7.59</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23"/>
+      <c r="O23">
+        <v>1</v>
+      </c>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="E24">
+        <v>2.3449999999999999E-3</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24"/>
+      <c r="O24">
+        <v>1</v>
+      </c>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>91</v>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="E25">
+        <v>2.2204460492503101E-16</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25"/>
+      <c r="O25">
+        <v>1</v>
+      </c>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>91</v>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>82</v>
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
+      <c r="O26">
+        <v>1</v>
+      </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>91</v>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27"/>
+      <c r="O27">
+        <v>1</v>
+      </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>31</v>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
       <c r="E28">
-        <v>1E-3</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28"/>
+      <c r="O28">
+        <v>1</v>
+      </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="4" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>4000</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29"/>
+      <c r="O29">
+        <v>1</v>
+      </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30">
+        <v>1</v>
+      </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E31"/>
-      <c r="F31" s="12"/>
-      <c r="G31"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31"/>
+      <c r="O31">
+        <v>1</v>
+      </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="E32"/>
-      <c r="F32" s="12"/>
-      <c r="G32"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32">
+        <v>2.9499999999999999E-8</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32"/>
+      <c r="O32">
+        <v>1</v>
+      </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E33"/>
-      <c r="F33" s="12"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="11"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -2597,9 +2844,9 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E34"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -2611,9 +2858,9 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E35"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -2625,9 +2872,9 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E36"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -2639,9 +2886,9 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" s="11"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -2653,7 +2900,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -2667,10 +2914,12 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -2679,13 +2928,25 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2693,19 +2954,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -2720,7 +2981,7 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2728,207 +2989,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="18">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="19">
-        <v>1000000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="19">
+      <c r="C10" s="18"/>
+      <c r="D10" s="20">
         <v>1000</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
+      <c r="E10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/SimpleFe/model_config.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9294" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
   <si>
     <t>type</t>
   </si>
@@ -281,21 +281,9 @@
     <t>mmol cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
-  </si>
-  <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of Fe at the TOP of sediment column</t>
-  </si>
-  <si>
     <t>free pH scale</t>
   </si>
   <si>
@@ -440,12 +428,6 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>Flux of Fe_ads at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Concentration of SO4 at the TOP of sediment column</t>
-  </si>
-  <si>
     <t>pH at the TOP of sediment column</t>
   </si>
   <si>
@@ -467,18 +449,9 @@
     <t>Seawater Cl concentration</t>
   </si>
   <si>
-    <t>(mmol cm-3 pw)^-0.5 yr^-1 </t>
-  </si>
-  <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>(mmol cm^-3 pw)^-1 </t>
-  </si>
-  <si>
-    <t>mmol cm^-3 ds yr^-1 </t>
-  </si>
-  <si>
     <t>10^(-3.2)</t>
   </si>
   <si>
@@ -599,13 +572,31 @@
     <t>porosity at infinite depth</t>
   </si>
   <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>DLorg_dis</t>
-  </si>
-  <si>
-    <t>Lorg_dis0</t>
+    <t>Bottom water concentration of SO4</t>
+  </si>
+  <si>
+    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Flux of TFe_ads at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>(mmol cm^-3)^-1 </t>
+  </si>
+  <si>
+    <t>mmol cm^-3 yr^-1 </t>
+  </si>
+  <si>
+    <t>(mmol cm-3)^-1 yr^-1 </t>
+  </si>
+  <si>
+    <t>Flux of POC at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Flux of FeOOH at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Flux of FeS at the TOP of sediment column</t>
   </si>
 </sst>
 </file>
@@ -665,6 +656,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,12 +673,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -689,8 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -714,34 +704,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,115 +1013,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D2:E5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.89453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.15234375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.07421875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4609375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="4"/>
+      <c r="F5" s="19" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1143,21 +1132,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1168,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>63</v>
@@ -1183,24 +1172,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>158</v>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -1219,236 +1208,236 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F9" sqref="A7:F9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.15625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
       <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>111</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-0.12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.96</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.65</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="5">
         <v>5.4</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="5"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1460,23 +1449,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="1"/>
+    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1485,20 +1474,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1508,17 +1497,17 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1528,14 +1517,14 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1545,111 +1534,111 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1663,37 +1652,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1705,48 +1694,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.62890625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.3125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.89453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.3125" style="3" customWidth="1"/>
-    <col min="10" max="13" width="9.20703125" style="3"/>
-    <col min="14" max="14" width="48.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.20703125" style="3"/>
-    <col min="16" max="16" width="15.20703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.20703125" style="3"/>
+    <col min="1" max="1" width="7.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3828125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" style="3" customWidth="1"/>
+    <col min="10" max="13" width="9.23046875" style="3"/>
+    <col min="14" max="14" width="48.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.23046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.23046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I1"/>
@@ -1762,26 +1751,26 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>500</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H2"/>
@@ -1798,26 +1787,26 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="13">
         <v>35</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H3"/>
@@ -1834,26 +1823,26 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>70</v>
       </c>
       <c r="H4"/>
@@ -1870,26 +1859,26 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>2.6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H5"/>
@@ -1906,26 +1895,26 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>50</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H6"/>
@@ -1942,26 +1931,26 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>200</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H7"/>
@@ -1978,27 +1967,27 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>148</v>
+      <c r="G8" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2014,165 +2003,162 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
+      <c r="D9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>0.78839999999999999</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="F10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="12"/>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>180</v>
+      <c r="G14" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2188,53 +2174,53 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>140</v>
+      <c r="D15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="16">
         <v>0.05</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
-        <v>183</v>
+      <c r="G16" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2250,27 +2236,27 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13">
         <v>0.31</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>79</v>
+      <c r="G17" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2286,54 +2272,54 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="13">
         <v>2.3E-2</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>80</v>
+      <c r="G18" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="12">
         <v>2.2204460492503101E-16</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
+      <c r="G19" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2349,27 +2335,27 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="13">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>132</v>
+      <c r="D20" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2385,27 +2371,27 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
+      <c r="D21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.9499999999999999E-8</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -2421,27 +2407,27 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22">
-        <v>2.9499999999999999E-8</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
+      <c r="D22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -2457,27 +2443,27 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="12">
         <v>7.59</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s">
-        <v>134</v>
+      <c r="F23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -2493,27 +2479,27 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="13">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="12">
         <v>2.3449999999999999E-3</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>135</v>
+      <c r="F24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -2529,27 +2515,27 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="12">
         <v>2.2204460492503101E-16</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
+      <c r="F25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -2565,26 +2551,26 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H26"/>
@@ -2601,27 +2587,27 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <v>3</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>137</v>
+      <c r="F27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -2637,27 +2623,27 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="13">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.01</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s">
-        <v>121</v>
+      <c r="G28" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -2673,28 +2659,29 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="F29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2708,27 +2695,27 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>4000</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>152</v>
+      <c r="F30" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -2744,27 +2731,27 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" t="s">
-        <v>139</v>
+      <c r="E31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -2780,28 +2767,12 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32">
-        <v>2.9499999999999999E-8</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="19"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2816,24 +2787,11 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33"/>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="19"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="L33"/>
@@ -2844,10 +2802,10 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34"/>
-      <c r="F34" s="11"/>
-      <c r="G34"/>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E34" s="12"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="19"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="L34"/>
@@ -2858,10 +2816,10 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35"/>
-      <c r="F35" s="11"/>
-      <c r="G35"/>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E35" s="12"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="19"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="L35"/>
@@ -2872,10 +2830,10 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36"/>
-      <c r="F36" s="11"/>
-      <c r="G36"/>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="19"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="L36"/>
@@ -2886,10 +2844,10 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37"/>
-      <c r="F37" s="11"/>
-      <c r="G37"/>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="19"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="L37"/>
@@ -2900,10 +2858,10 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="19"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="L38"/>
@@ -2914,10 +2872,10 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="19"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="L39"/>
@@ -2928,10 +2886,10 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="19"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -2951,37 +2909,38 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.89453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.4609375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>102</v>
+      <c r="F1" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2991,256 +2950,193 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.84375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.84375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.61328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.15234375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E2" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="18" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="18" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="18">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/SimpleFe/model_config.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.xlsx
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/examples/SimpleFe/model_config.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_config.SimpleFe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9291" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Flux of FeS at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1221,7 +1224,7 @@
     <col min="6" max="6" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1240,8 +1243,11 @@
       <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1260,8 +1266,11 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1341,42 +1350,42 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14" s="4"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E16" s="4"/>
       <c r="F16" s="7"/>
     </row>
@@ -1649,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1661,28 +1670,37 @@
     <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>157</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
